--- a/MavenBook/src/test/resources/SalesOrderData.xlsx
+++ b/MavenBook/src/test/resources/SalesOrderData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SalesOrderHeader" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
-  <si>
-    <t>lary</t>
-  </si>
-  <si>
-    <t>ABC Super</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Customer Name</t>
   </si>
@@ -56,9 +50,6 @@
     <t>20122025</t>
   </si>
   <si>
-    <t>omr OB 2000</t>
-  </si>
-  <si>
     <t>Subinm</t>
   </si>
   <si>
@@ -68,7 +59,16 @@
     <t>oph</t>
   </si>
   <si>
-    <t>24112025</t>
+    <t>03122025</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Bp</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -151,6 +151,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,82 +475,68 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10">
+        <v>45994</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45994</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="3"/>
@@ -578,30 +565,22 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:E14" numberStoredAsText="1"/>
+    <ignoredError sqref="E4:E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,100 +592,56 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
         <v>5</v>
       </c>
     </row>

--- a/MavenBook/src/test/resources/SalesOrderData.xlsx
+++ b/MavenBook/src/test/resources/SalesOrderData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SalesOrderHeader" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Customer Name</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
     <t>Sales Person</t>
   </si>
   <si>
@@ -44,12 +41,6 @@
     <t>Net 15</t>
   </si>
   <si>
-    <t>Exp delivery Date</t>
-  </si>
-  <si>
-    <t>20122025</t>
-  </si>
-  <si>
     <t>Subinm</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>oph</t>
   </si>
   <si>
-    <t>03122025</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
@@ -69,13 +57,40 @@
   </si>
   <si>
     <t>Bp</t>
+  </si>
+  <si>
+    <t>Expected Delivery Date</t>
+  </si>
+  <si>
+    <t>16122025</t>
+  </si>
+  <si>
+    <t>18122025</t>
+  </si>
+  <si>
+    <t>25122025</t>
+  </si>
+  <si>
+    <t>22122025</t>
+  </si>
+  <si>
+    <t>Saji</t>
+  </si>
+  <si>
+    <t>Sales P1</t>
+  </si>
+  <si>
+    <t>151225-1</t>
+  </si>
+  <si>
+    <t>151225-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +105,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -126,19 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,121 +459,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10">
-        <v>45994</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10">
-        <v>45994</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E4:E12" numberStoredAsText="1"/>
+    <ignoredError sqref="C4:C12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -579,67 +593,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>

--- a/MavenBook/src/test/resources/SalesOrderData.xlsx
+++ b/MavenBook/src/test/resources/SalesOrderData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SalesOrderHeader" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Customer Name</t>
   </si>
@@ -62,18 +62,6 @@
     <t>Expected Delivery Date</t>
   </si>
   <si>
-    <t>16122025</t>
-  </si>
-  <si>
-    <t>18122025</t>
-  </si>
-  <si>
-    <t>25122025</t>
-  </si>
-  <si>
-    <t>22122025</t>
-  </si>
-  <si>
     <t>Saji</t>
   </si>
   <si>
@@ -84,13 +72,70 @@
   </si>
   <si>
     <t>151225-2</t>
+  </si>
+  <si>
+    <t>24-12-2025</t>
+  </si>
+  <si>
+    <t>25-12-2025</t>
+  </si>
+  <si>
+    <t>30-12-2025</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Customer Notes</t>
+  </si>
+  <si>
+    <t>Terms And Conditions</t>
+  </si>
+  <si>
+    <t>Save As</t>
+  </si>
+  <si>
+    <t>Price List</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>notex</t>
+  </si>
+  <si>
+    <t>termsx</t>
+  </si>
+  <si>
+    <t>SAVE AND APPROVE</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>SAVE AND SUBMIT</t>
+  </si>
+  <si>
+    <t>Discount Type</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>special price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +159,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -155,6 +205,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,33 +512,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -494,90 +552,114 @@
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
     </row>
   </sheetData>
@@ -591,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +684,11 @@
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -614,8 +698,14 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -625,8 +715,14 @@
       <c r="C2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -636,8 +732,14 @@
       <c r="C3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -647,8 +749,11 @@
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -657,6 +762,9 @@
       </c>
       <c r="C5">
         <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
